--- a/Code_For_Figures_and_Analysis/SupFig7/fai_Results/Final_Results/Candidate_Homologous_Gene_Clusters.xlsx
+++ b/Code_For_Figures_and_Analysis/SupFig7/fai_Results/Final_Results/Candidate_Homologous_Gene_Clusters.xlsx
@@ -462,97 +462,97 @@
     <t>syntenic-correlation</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t10_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t10_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t6_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t6_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t1_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t1_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t21_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t21_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t27_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t27_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t15_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t15_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t13_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t13_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t3_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t3_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t22_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t22_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t5_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t5_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t19_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t19_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t17_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t17_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t30_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t30_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t23_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t23_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t14_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t14_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t8_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t8_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t7_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t7_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t28_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t28_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t9_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t9_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t24_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t24_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t4_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t4_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t26_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t26_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t16_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t16_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t20_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t20_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t11_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t11_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t29_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t29_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t25_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t25_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t18_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t18_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t2_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t2_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t12_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/t12_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
-    <t>/home/conda_envs/CoreSimul/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ref_Epa_from_V583_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Enterococcus_Epa/CoreSimul/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ref_Epa_from_V583_fai-gene-cluster-1.gbk</t>
   </si>
 </sst>
 </file>
